--- a/EXERCISE 1.xlsx
+++ b/EXERCISE 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepoIMR\BelajarExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67A9F93-1FBD-41C3-A97E-3FCD7C1A13F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980BF450-883B-45F7-8705-9F6550A6CD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="12870" windowHeight="7785" xr2:uid="{C4E0175F-1D5A-46DC-934C-7292B24B32CA}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="9135" windowHeight="7785" xr2:uid="{C4E0175F-1D5A-46DC-934C-7292B24B32CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -262,6 +262,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -274,12 +280,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61C1FED-F659-4E13-8A96-6FC5871B6B13}">
   <dimension ref="A2:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:D20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,39 +626,39 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="6" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" s="3" t="s">
         <v>4</v>
       </c>
@@ -668,12 +668,12 @@
       <c r="E6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
